--- a/Lab3/VelocitySineResponse/Magnitude Response.xlsx
+++ b/Lab3/VelocitySineResponse/Magnitude Response.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16215" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Magnitude (dB)</t>
   </si>
@@ -40,6 +39,12 @@
   </si>
   <si>
     <t>%Error</t>
+  </si>
+  <si>
+    <t>$\frac{\pi}{2}$</t>
+  </si>
+  <si>
+    <t>$\pi/2$</t>
   </si>
 </sst>
 </file>
@@ -417,11 +422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="247810760"/>
-        <c:axId val="247274592"/>
+        <c:axId val="246563712"/>
+        <c:axId val="117234408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="247810760"/>
+        <c:axId val="246563712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -546,12 +551,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247274592"/>
+        <c:crossAx val="117234408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247274592"/>
+        <c:axId val="117234408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,7 +670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247810760"/>
+        <c:crossAx val="246563712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -1074,11 +1079,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322607616"/>
-        <c:axId val="322607224"/>
+        <c:axId val="233409920"/>
+        <c:axId val="235182376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322607616"/>
+        <c:axId val="233409920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1193,12 +1198,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322607224"/>
+        <c:crossAx val="235182376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322607224"/>
+        <c:axId val="235182376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1312,7 +1317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="322607616"/>
+        <c:crossAx val="233409920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2513,16 +2518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180973</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3047,10 +3052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,7 +3066,7 @@
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3078,7 +3083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3098,7 +3103,7 @@
         <v>4.9786004634141685</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>3.9054505131341291</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.9</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>-28.839915084296489</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3158,7 +3163,7 @@
         <v>-32.189808326494692</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3178,7 +3183,7 @@
         <v>-62.956686995361352</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>-69.548566428341488</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3206,55 +3211,162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <v>0.42201557228732267</v>
       </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <v>0.33276659420245613</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1.649</v>
+      </c>
+      <c r="G13">
+        <v>0.42201557228732267</v>
+      </c>
+      <c r="H13">
+        <v>4.9786004634141685</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.9</v>
       </c>
       <c r="B14">
         <v>-2.9552708468382889</v>
       </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1.6321429999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.33276659420245613</v>
+      </c>
+      <c r="H14">
+        <v>3.9054505131341291</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
         <v>-3.3741005607335044</v>
       </c>
+      <c r="D15">
+        <v>2.9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>1.11778</v>
+      </c>
+      <c r="G15">
+        <v>-2.9552708468382889</v>
+      </c>
+      <c r="H15">
+        <v>-28.839915084296489</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
       <c r="B16">
         <v>-8.6258035740946948</v>
       </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>1.0651600000000001</v>
+      </c>
+      <c r="G16">
+        <v>-3.3741005607335044</v>
+      </c>
+      <c r="H16">
+        <v>-32.189808326494692</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
         <v>-10.327845142654635</v>
       </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.58187500000000003</v>
+      </c>
+      <c r="G17">
+        <v>-8.6258035740946948</v>
+      </c>
+      <c r="H17">
+        <v>-62.956686995361352</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>0.47832999999999998</v>
+      </c>
+      <c r="G18">
+        <v>-10.327845142654635</v>
+      </c>
+      <c r="H18">
+        <v>-69.548566428341488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3262,7 +3374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -3270,7 +3382,7 @@
         <v>4.9786004634141685</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3278,7 +3390,7 @@
         <v>3.9054505131341291</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.9</v>
       </c>
@@ -3286,7 +3398,7 @@
         <v>-28.839915084296489</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3294,7 +3406,7 @@
         <v>-32.189808326494692</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3302,7 +3414,7 @@
         <v>-62.956686995361352</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
